--- a/resultats_output2.xlsx
+++ b/resultats_output2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,169 +436,59 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>projet2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>projet3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>projet4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>projet5</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>projet6</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>projet7</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>projet8</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>projet9</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>projet10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>eleve2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eleve4</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>eleve1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>eleve3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>eleve7</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>eleve8</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>eleve13</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>eleve9</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>eleve5</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>eleve3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eleve10</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>eleve12</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>eleve4</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>eleve11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>eleve16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>eleve14</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>eleve15</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>eleve5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>eleve6</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
